--- a/training/output/CNN/P/P2_P1.xlsx
+++ b/training/output/CNN/P/P2_P1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8728070175438597</v>
+        <v>0.5108333333333333</v>
       </c>
       <c r="B2" t="n">
-        <v>1.671608753371657</v>
+        <v>1.693094253540039</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9627192982456141</v>
+        <v>0.5825</v>
       </c>
       <c r="B3" t="n">
-        <v>1.483235769104539</v>
+        <v>1.527384459972382</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9682017543859649</v>
+        <v>0.5808333333333333</v>
       </c>
       <c r="B4" t="n">
-        <v>1.436637083689372</v>
+        <v>1.461675345897675</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9714912280701754</v>
+        <v>0.6416666666666666</v>
       </c>
       <c r="B5" t="n">
-        <v>1.411050463977613</v>
+        <v>1.461933583021164</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9747807017543859</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1.417720462146558</v>
+        <v>1.425764560699463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9714912280701754</v>
+        <v>0.77</v>
       </c>
       <c r="B7" t="n">
-        <v>1.438870714421858</v>
+        <v>1.360389620065689</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9780701754385965</v>
+        <v>0.7916666666666665</v>
       </c>
       <c r="B8" t="n">
-        <v>1.443282211036013</v>
+        <v>1.283559530973434</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9144736842105263</v>
+        <v>0.8041666666666667</v>
       </c>
       <c r="B9" t="n">
-        <v>1.502928771470722</v>
+        <v>1.25043123960495</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9703947368421053</v>
+        <v>0.8125</v>
       </c>
       <c r="B10" t="n">
-        <v>1.418067704167282</v>
+        <v>1.223649471998215</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9682017543859649</v>
+        <v>0.8391666666666666</v>
       </c>
       <c r="B11" t="n">
-        <v>1.446285532231916</v>
+        <v>1.184265464544296</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9780701754385965</v>
+        <v>0.8466666666666667</v>
       </c>
       <c r="B12" t="n">
-        <v>1.411754564235085</v>
+        <v>1.119284093379974</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.8716666666666667</v>
       </c>
       <c r="B13" t="n">
-        <v>1.413037168352227</v>
+        <v>1.046740293502808</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9802631578947368</v>
+        <v>0.9</v>
       </c>
       <c r="B14" t="n">
-        <v>1.413825882108588</v>
+        <v>1.070319026708603</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="B15" t="n">
-        <v>1.412444250625476</v>
+        <v>1.139160662889481</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9451754385964912</v>
+        <v>0.905</v>
       </c>
       <c r="B16" t="n">
-        <v>1.421822738229183</v>
+        <v>1.044421270489693</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9747807017543859</v>
+        <v>0.9075</v>
       </c>
       <c r="B17" t="n">
-        <v>1.401509732530828</v>
+        <v>0.96536785364151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9758771929824561</v>
+        <v>0.8858333333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>1.397405774969804</v>
+        <v>0.9621505737304688</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9747807017543859</v>
+        <v>0.9191666666666666</v>
       </c>
       <c r="B19" t="n">
-        <v>1.406299091221993</v>
+        <v>0.9436250180006027</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9692982456140351</v>
+        <v>0.9175</v>
       </c>
       <c r="B20" t="n">
-        <v>1.476607333149826</v>
+        <v>0.9186413139104843</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9671052631578947</v>
+        <v>0.9258333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>1.440055623389127</v>
+        <v>0.9225910753011703</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.8574999999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>1.418442836978979</v>
+        <v>1.070846438407898</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9495614035087719</v>
+        <v>0.9208333333333334</v>
       </c>
       <c r="B23" t="n">
-        <v>1.404816828275982</v>
+        <v>0.9881866574287415</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9660087719298246</v>
+        <v>0.9274999999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>1.406946234535753</v>
+        <v>0.9297169148921967</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.9325</v>
       </c>
       <c r="B25" t="n">
-        <v>1.416902098739356</v>
+        <v>0.8987626135349274</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9682017543859649</v>
+        <v>0.9316666666666665</v>
       </c>
       <c r="B26" t="n">
-        <v>1.397384873607702</v>
+        <v>0.8786741644144058</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9714912280701754</v>
+        <v>0.9241666666666667</v>
       </c>
       <c r="B27" t="n">
-        <v>1.395998582505343</v>
+        <v>0.8750413358211517</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9424999999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>1.406137154813398</v>
+        <v>0.8784604221582413</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.9316666666666666</v>
       </c>
       <c r="B29" t="n">
-        <v>1.404349224609241</v>
+        <v>0.8476514518260956</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9692982456140351</v>
+        <v>0.9324999999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>1.395913092713607</v>
+        <v>0.8754996806383133</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9714912280701754</v>
+        <v>0.9325000000000001</v>
       </c>
       <c r="B31" t="n">
-        <v>1.393421524449399</v>
+        <v>0.8344221115112305</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9692982456140351</v>
+        <v>0.9225</v>
       </c>
       <c r="B32" t="n">
-        <v>1.397357597685697</v>
+        <v>0.8314095586538315</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9116666666666667</v>
       </c>
       <c r="B33" t="n">
-        <v>1.39517911484367</v>
+        <v>0.8857595473527908</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.981359649122807</v>
+        <v>0.9274999999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>1.407200407563594</v>
+        <v>0.8178547322750092</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9358333333333333</v>
       </c>
       <c r="B35" t="n">
-        <v>1.408012155900922</v>
+        <v>0.8370600044727325</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9682017543859649</v>
+        <v>0.9508333333333334</v>
       </c>
       <c r="B36" t="n">
-        <v>1.407684947315015</v>
+        <v>0.8120881617069244</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9325000000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>1.395893329068234</v>
+        <v>0.8420650660991669</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9846491228070176</v>
+        <v>0.9283333333333335</v>
       </c>
       <c r="B38" t="n">
-        <v>1.391536601802759</v>
+        <v>0.8207033276557922</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.9283333333333335</v>
       </c>
       <c r="B39" t="n">
-        <v>1.391112045237892</v>
+        <v>0.8366247862577438</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9416666666666665</v>
       </c>
       <c r="B40" t="n">
-        <v>1.395838745853357</v>
+        <v>0.8149575442075729</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9383333333333335</v>
       </c>
       <c r="B41" t="n">
-        <v>1.393643617630005</v>
+        <v>0.7997016310691833</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9857456140350878</v>
+        <v>0.9575</v>
       </c>
       <c r="B42" t="n">
-        <v>1.392751515957347</v>
+        <v>0.7834896296262741</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.981359649122807</v>
+        <v>0.9575</v>
       </c>
       <c r="B43" t="n">
-        <v>1.397889461433678</v>
+        <v>0.7955537736415863</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>1.394205649693807</v>
+        <v>0.7868677824735641</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9846491228070176</v>
+        <v>0.9450000000000001</v>
       </c>
       <c r="B45" t="n">
-        <v>1.390548248040049</v>
+        <v>0.8041166812181473</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9624999999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>1.389980161399172</v>
+        <v>0.7637180387973785</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9835526315789473</v>
+        <v>0.9458333333333333</v>
       </c>
       <c r="B47" t="n">
-        <v>1.395434352389553</v>
+        <v>0.763343945145607</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9682017543859649</v>
+        <v>0.9216666666666666</v>
       </c>
       <c r="B48" t="n">
-        <v>1.393696527732046</v>
+        <v>0.7960802018642426</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9747807017543859</v>
+        <v>0.9441666666666666</v>
       </c>
       <c r="B49" t="n">
-        <v>1.393407629247297</v>
+        <v>0.7562698274850845</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9802631578947368</v>
+        <v>0.9508333333333334</v>
       </c>
       <c r="B50" t="n">
-        <v>1.389766195364166</v>
+        <v>0.7589399367570877</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9780701754385965</v>
+        <v>0.96</v>
       </c>
       <c r="B51" t="n">
-        <v>1.391072802376329</v>
+        <v>0.7664899230003357</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9780701754385965</v>
+        <v>0.9325000000000001</v>
       </c>
       <c r="B52" t="n">
-        <v>1.406779040370071</v>
+        <v>0.7819522768259048</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9846491228070176</v>
+        <v>0.9475</v>
       </c>
       <c r="B53" t="n">
-        <v>1.389717622807151</v>
+        <v>0.7916185259819031</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.981359649122807</v>
+        <v>0.9541666666666666</v>
       </c>
       <c r="B54" t="n">
-        <v>1.410870004118534</v>
+        <v>0.780528724193573</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9747807017543859</v>
+        <v>0.9550000000000001</v>
       </c>
       <c r="B55" t="n">
-        <v>1.407042001423083</v>
+        <v>0.7716958075761795</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9566666666666668</v>
       </c>
       <c r="B56" t="n">
-        <v>1.400358522147463</v>
+        <v>0.7705013602972031</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9758771929824561</v>
+        <v>0.96</v>
       </c>
       <c r="B57" t="n">
-        <v>1.41114115924166</v>
+        <v>0.7459025979042053</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9769736842105263</v>
+        <v>0.9575</v>
       </c>
       <c r="B58" t="n">
-        <v>1.389669953731068</v>
+        <v>0.7520387172698975</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9769736842105263</v>
+        <v>0.9483333333333335</v>
       </c>
       <c r="B59" t="n">
-        <v>1.389306587085389</v>
+        <v>0.7403442859649658</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9747807017543859</v>
+        <v>0.9591666666666667</v>
       </c>
       <c r="B60" t="n">
-        <v>1.431514827828658</v>
+        <v>0.7425893396139145</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9575</v>
       </c>
       <c r="B61" t="n">
-        <v>1.393741032533478</v>
+        <v>0.7419363558292389</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9575</v>
       </c>
       <c r="B62" t="n">
-        <v>1.39813546757949</v>
+        <v>0.739394411444664</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9769736842105263</v>
+        <v>0.9550000000000001</v>
       </c>
       <c r="B63" t="n">
-        <v>1.40497126495629</v>
+        <v>0.7402386516332626</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9550000000000001</v>
       </c>
       <c r="B64" t="n">
-        <v>1.394730321147986</v>
+        <v>0.7600194215774536</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9550000000000001</v>
       </c>
       <c r="B65" t="n">
-        <v>1.40040581895594</v>
+        <v>0.7457115948200226</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.9591666666666667</v>
       </c>
       <c r="B66" t="n">
-        <v>1.433951988554838</v>
+        <v>0.7366300374269485</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9769736842105263</v>
+        <v>0.9575</v>
       </c>
       <c r="B67" t="n">
-        <v>1.400020080700255</v>
+        <v>0.7468293160200119</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9802631578947368</v>
+        <v>0.9566666666666667</v>
       </c>
       <c r="B68" t="n">
-        <v>1.392549086035344</v>
+        <v>0.7421045899391174</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.95</v>
       </c>
       <c r="B69" t="n">
-        <v>1.390657343362507</v>
+        <v>0.7479237169027328</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.9575</v>
       </c>
       <c r="B70" t="n">
-        <v>1.3908858152858</v>
+        <v>0.745154395699501</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.993421052631579</v>
+        <v>0.96</v>
       </c>
       <c r="B71" t="n">
-        <v>1.411118904749552</v>
+        <v>0.7346218228340149</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9857456140350878</v>
+        <v>0.96</v>
       </c>
       <c r="B72" t="n">
-        <v>1.396642873161718</v>
+        <v>0.733088031411171</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9624999999999999</v>
       </c>
       <c r="B73" t="n">
-        <v>1.452363765030577</v>
+        <v>0.7335561364889145</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9016666666666666</v>
       </c>
       <c r="B74" t="n">
-        <v>1.422240060672425</v>
+        <v>1.048509269952774</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9846491228070176</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="B75" t="n">
-        <v>1.404819595186334</v>
+        <v>1.086234956979752</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9516666666666667</v>
       </c>
       <c r="B76" t="n">
-        <v>1.394326791428683</v>
+        <v>0.8205790519714355</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9541666666666667</v>
       </c>
       <c r="B77" t="n">
-        <v>1.398804382274025</v>
+        <v>0.8099836260080338</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9846491228070176</v>
+        <v>0.9475</v>
       </c>
       <c r="B78" t="n">
-        <v>1.409752193250154</v>
+        <v>0.7755700349807739</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9650000000000001</v>
       </c>
       <c r="B79" t="n">
-        <v>1.415682909781473</v>
+        <v>0.7730775326490402</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9650000000000001</v>
       </c>
       <c r="B80" t="n">
-        <v>1.404501289652105</v>
+        <v>0.7611211687326431</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9475</v>
       </c>
       <c r="B81" t="n">
-        <v>1.431597818408096</v>
+        <v>0.7862802594900131</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9716666666666667</v>
       </c>
       <c r="B82" t="n">
-        <v>1.41277267430958</v>
+        <v>0.7430790960788727</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9624999999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>1.39568191034752</v>
+        <v>0.7564389407634735</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.97</v>
       </c>
       <c r="B84" t="n">
-        <v>1.420397555618955</v>
+        <v>0.7582215219736099</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9575</v>
       </c>
       <c r="B85" t="n">
-        <v>1.411639288852089</v>
+        <v>0.7578034549951553</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9550000000000001</v>
       </c>
       <c r="B86" t="n">
-        <v>1.397127559310511</v>
+        <v>0.7826398909091949</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9650000000000001</v>
       </c>
       <c r="B87" t="n">
-        <v>1.393377657522235</v>
+        <v>0.7436386048793793</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9575</v>
       </c>
       <c r="B88" t="n">
-        <v>1.451664849331505</v>
+        <v>0.7402561604976654</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9650000000000001</v>
       </c>
       <c r="B89" t="n">
-        <v>1.395940318442228</v>
+        <v>0.7246602773666382</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9650000000000001</v>
       </c>
       <c r="B90" t="n">
-        <v>1.40318803201642</v>
+        <v>0.7292013019323349</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9624999999999999</v>
       </c>
       <c r="B91" t="n">
-        <v>1.405914402844613</v>
+        <v>0.7325144112110138</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.96</v>
       </c>
       <c r="B92" t="n">
-        <v>1.396006339474728</v>
+        <v>0.7322657853364944</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9624999999999999</v>
       </c>
       <c r="B93" t="n">
-        <v>1.403784994493451</v>
+        <v>0.7206806838512421</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9967105263157895</v>
+        <v>0.9624999999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>1.398277736546701</v>
+        <v>0.7299299538135529</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.96</v>
       </c>
       <c r="B95" t="n">
-        <v>1.392449050618891</v>
+        <v>0.7305100709199905</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.96</v>
       </c>
       <c r="B96" t="n">
-        <v>1.388783879447402</v>
+        <v>0.7285151481628418</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.993421052631579</v>
+        <v>0.96</v>
       </c>
       <c r="B97" t="n">
-        <v>1.395035053554334</v>
+        <v>0.7314457148313522</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9575</v>
       </c>
       <c r="B98" t="n">
-        <v>1.405943272406595</v>
+        <v>0.7333054095506668</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9575</v>
       </c>
       <c r="B99" t="n">
-        <v>1.3966021014933</v>
+        <v>0.7227746099233627</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9616666666666667</v>
       </c>
       <c r="B100" t="n">
-        <v>1.396637627952977</v>
+        <v>0.724829837679863</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9691666666666667</v>
       </c>
       <c r="B101" t="n">
-        <v>1.392193380155061</v>
+        <v>0.7272351384162903</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9691666666666667</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7220040410757065</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9691666666666667</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7232048064470291</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9716666666666667</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.721853494644165</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7197816520929337</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7166921198368073</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9591666666666667</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7218830585479736</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7198003232479095</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9691666666666667</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7183558940887451</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9641666666666666</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7283751368522644</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9616666666666667</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7247307300567627</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9641666666666666</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7320862710475922</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7285877466201782</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.721331462264061</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9716666666666667</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7206592112779617</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9691666666666667</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7249789834022522</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9716666666666667</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7378470599651337</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9716666666666667</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7222623080015182</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9691666666666667</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7202184051275253</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9716666666666667</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7327647507190704</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9741666666666666</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.719506099820137</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9716666666666667</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7204720228910446</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9716666666666667</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7204863429069519</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9741666666666666</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.72209233045578</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9741666666666666</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7226047366857529</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9741666666666666</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7291507422924042</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9716666666666667</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7229305505752563</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9716666666666667</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7197020947933197</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9716666666666667</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7281124144792557</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9833333333333334</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7170832604169846</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9716666666666667</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7176090627908707</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9741666666666666</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7158516049385071</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9741666666666666</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.71708083152771</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9741666666666666</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7276279479265213</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9766666666666667</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7208546698093414</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9766666666666667</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7199448794126511</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9741666666666666</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7252599447965622</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9716666666666667</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.721323624253273</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9766666666666667</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7169286608695984</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9766666666666667</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7264829128980637</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9741666666666666</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7256678342819214</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9766666666666667</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7154261022806168</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9833333333333334</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7189821898937225</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9766666666666667</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7257558703422546</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9808333333333333</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7155951857566833</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9808333333333333</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7190407514572144</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9783333333333333</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7262553572654724</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9783333333333333</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7235683649778366</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9808333333333333</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7308113723993301</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9783333333333333</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.725586473941803</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9524999999999999</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7801405638456345</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.8966666666666667</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.9586280584335327</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9516666666666667</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7619143575429916</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9658333333333333</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.750616118311882</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9708333333333333</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7182393074035645</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9733333333333334</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7226886600255966</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9758333333333333</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7230623811483383</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9758333333333333</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7230009436607361</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9733333333333334</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7153261005878448</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9733333333333334</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7346545606851578</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9783333333333333</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7159952521324158</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9758333333333333</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.717261016368866</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9758333333333333</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7195133566856384</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9758333333333333</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7176399827003479</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9758333333333333</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7168569266796112</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9808333333333333</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7154717147350311</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9783333333333333</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7149307727813721</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9833333333333334</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7220870852470398</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9808333333333333</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7298592776060104</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9808333333333333</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7179974615573883</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9783333333333333</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7294821739196777</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9758333333333333</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7153940349817276</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9783333333333333</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7341978698968887</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9783333333333333</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7269542217254639</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9833333333333334</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7126386761665344</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9783333333333333</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7141754776239395</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9808333333333333</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7268001586198807</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9808333333333333</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7248633056879044</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9783333333333333</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7177771180868149</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9858333333333333</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7176535725593567</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9833333333333334</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7113342732191086</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9833333333333334</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7220542877912521</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9833333333333334</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7200852185487747</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9724999999999999</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7273890525102615</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9833333333333334</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7202968597412109</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9858333333333333</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7199167460203171</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9883333333333333</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7180565446615219</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9883333333333333</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7216487675905228</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9883333333333333</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7229682803153992</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9858333333333333</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7218037992715836</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9883333333333333</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7130329459905624</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9883333333333333</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7233784794807434</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9883333333333333</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7171797454357147</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9883333333333333</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7171129882335663</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9883333333333333</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7208723127841949</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9883333333333333</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7140901684761047</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9883333333333333</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7238413989543915</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9858333333333333</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7255135774612427</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9883333333333333</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7195955961942673</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9883333333333333</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7145926356315613</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9858333333333333</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7117811888456345</v>
       </c>
     </row>
   </sheetData>
